--- a/output_validation/02_factor_strata.xlsx
+++ b/output_validation/02_factor_strata.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Boy" sheetId="2" r:id="rId2"/>
     <sheet name="ECE" sheetId="3" r:id="rId3"/>
     <sheet name="primary" sheetId="4" r:id="rId4"/>
-    <sheet name="upper_primary" sheetId="5" r:id="rId5"/>
+    <sheet name="intermediate level" sheetId="5" r:id="rId5"/>
     <sheet name="secondary" sheetId="6" r:id="rId6"/>
     <sheet name="Disability" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="28">
   <si>
     <t>Admin</t>
   </si>
@@ -91,19 +91,19 @@
     <t>ECE</t>
   </si>
   <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>intermediate level</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>upper_primary</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>Disability</t>
   </si>
 </sst>
 </file>
@@ -905,13 +905,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,11 +921,8 @@
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -935,11 +932,8 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -949,11 +943,8 @@
       <c r="C3">
         <v>0.11</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -963,11 +954,8 @@
       <c r="C4">
         <v>0.1</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -977,11 +965,8 @@
       <c r="C5">
         <v>0.12</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -991,11 +976,8 @@
       <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1005,11 +987,8 @@
       <c r="C7">
         <v>0.08</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1019,11 +998,8 @@
       <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1033,11 +1009,8 @@
       <c r="C9">
         <v>0.1</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1047,11 +1020,8 @@
       <c r="C10">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1061,11 +1031,8 @@
       <c r="C11">
         <v>0.1</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1075,11 +1042,8 @@
       <c r="C12">
         <v>0.1</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1089,11 +1053,8 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1103,11 +1064,8 @@
       <c r="C14">
         <v>0.11</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1117,11 +1075,8 @@
       <c r="C15">
         <v>0.11</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1131,11 +1086,8 @@
       <c r="C16">
         <v>0.1</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1145,11 +1097,8 @@
       <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1159,11 +1108,8 @@
       <c r="C18">
         <v>0.13</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1172,9 +1118,6 @@
       </c>
       <c r="C19">
         <v>0.13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1184,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,13 +1141,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1214,11 +1154,8 @@
       <c r="C2">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1228,11 +1165,8 @@
       <c r="C3">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1242,11 +1176,8 @@
       <c r="C4">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1256,11 +1187,8 @@
       <c r="C5">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1270,11 +1198,8 @@
       <c r="C6">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1284,11 +1209,8 @@
       <c r="C7">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1298,11 +1220,8 @@
       <c r="C8">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1312,11 +1231,8 @@
       <c r="C9">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1326,11 +1242,8 @@
       <c r="C10">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1340,11 +1253,8 @@
       <c r="C11">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1354,11 +1264,8 @@
       <c r="C12">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1368,11 +1275,8 @@
       <c r="C13">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1382,11 +1286,8 @@
       <c r="C14">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1396,11 +1297,8 @@
       <c r="C15">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1410,11 +1308,8 @@
       <c r="C16">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1424,11 +1319,8 @@
       <c r="C17">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1438,11 +1330,8 @@
       <c r="C18">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1451,9 +1340,6 @@
       </c>
       <c r="C19">
         <v>0.3846153846153846</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1463,13 +1349,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,13 +1363,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1493,11 +1376,8 @@
       <c r="C2">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1507,11 +1387,8 @@
       <c r="C3">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1521,11 +1398,8 @@
       <c r="C4">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1535,11 +1409,8 @@
       <c r="C5">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1549,11 +1420,8 @@
       <c r="C6">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1563,11 +1431,8 @@
       <c r="C7">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1577,11 +1442,8 @@
       <c r="C8">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1591,11 +1453,8 @@
       <c r="C9">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1605,11 +1464,8 @@
       <c r="C10">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1619,11 +1475,8 @@
       <c r="C11">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1633,11 +1486,8 @@
       <c r="C12">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1647,11 +1497,8 @@
       <c r="C13">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1661,11 +1508,8 @@
       <c r="C14">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1675,11 +1519,8 @@
       <c r="C15">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1689,11 +1530,8 @@
       <c r="C16">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1703,11 +1541,8 @@
       <c r="C17">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1717,11 +1552,8 @@
       <c r="C18">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1730,9 +1562,6 @@
       </c>
       <c r="C19">
         <v>0.3076923076923077</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1742,13 +1571,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,13 +1585,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1772,11 +1598,8 @@
       <c r="C2">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1786,11 +1609,8 @@
       <c r="C3">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1800,11 +1620,8 @@
       <c r="C4">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1814,11 +1631,8 @@
       <c r="C5">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1828,11 +1642,8 @@
       <c r="C6">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1842,11 +1653,8 @@
       <c r="C7">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1856,11 +1664,8 @@
       <c r="C8">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1870,11 +1675,8 @@
       <c r="C9">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1884,11 +1686,8 @@
       <c r="C10">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1898,11 +1697,8 @@
       <c r="C11">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1912,11 +1708,8 @@
       <c r="C12">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1926,11 +1719,8 @@
       <c r="C13">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1940,11 +1730,8 @@
       <c r="C14">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1954,11 +1741,8 @@
       <c r="C15">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1968,11 +1752,8 @@
       <c r="C16">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1982,11 +1763,8 @@
       <c r="C17">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1996,11 +1774,8 @@
       <c r="C18">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2009,9 +1784,6 @@
       </c>
       <c r="C19">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2035,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2052,7 +1824,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2066,7 +1838,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2080,7 +1852,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2094,7 +1866,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2108,7 +1880,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2122,7 +1894,7 @@
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2136,7 +1908,7 @@
         <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2150,7 +1922,7 @@
         <v>0.1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2164,7 +1936,7 @@
         <v>0.1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2178,7 +1950,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2192,7 +1964,7 @@
         <v>0.1</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2206,7 +1978,7 @@
         <v>0.1</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2220,7 +1992,7 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2234,7 +2006,7 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2248,7 +2020,7 @@
         <v>0.1</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2262,7 +2034,7 @@
         <v>0.1</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2276,7 +2048,7 @@
         <v>0.1</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2290,7 +2062,7 @@
         <v>0.1</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
